--- a/DATA/IsoData/GUANIsoData.xlsx
+++ b/DATA/IsoData/GUANIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">6e262664-311d-4d67-8505-d279afcdfe72</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad2b708a-8b47-4d35-9eeb-e0a724530515</t>
   </si>
   <si>
     <t xml:space="preserve">GUAN.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T143626Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4c4ec041-50bf-427d-93be-15bb38f3f780</t>
+    <t xml:space="preserve">20210111T175633Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6c831263-6dc0-4a75-b5d0-723d9b05a4df</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GUAN.20190530.0827</t>
@@ -101,7 +107,7 @@
     <t xml:space="preserve">A00000040331</t>
   </si>
   <si>
-    <t xml:space="preserve">38a08301-e6f7-4cff-ab47-296fb7d56331</t>
+    <t xml:space="preserve">e3b873c4-7815-4522-a133-a22a8e9d9b4c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GUAN.20190613.0824</t>
@@ -113,10 +119,10 @@
     <t xml:space="preserve">A00000040326</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T143623Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89a9cdcd-e089-4c10-b003-0cf2fa1dd3d0</t>
+    <t xml:space="preserve">20210111T175604Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8c74eb7d-c176-4767-b1aa-c7937871c4d2</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GUAN.20190627.0814</t>
@@ -128,7 +134,7 @@
     <t xml:space="preserve">A00000040223</t>
   </si>
   <si>
-    <t xml:space="preserve">03d08fe2-7454-4129-a99c-b1231c9dfa6c</t>
+    <t xml:space="preserve">8e194c8d-c6cb-4827-8a05-c7d19f957ce5</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GUAN.20190711.0828</t>
@@ -140,10 +146,10 @@
     <t xml:space="preserve">A00000040228</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T143305Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203c1b95-7d7c-4f21-8741-f4e6d2802670</t>
+    <t xml:space="preserve">20210111T184107Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8cf63e54-2455-4ee0-a726-5d16519b4140</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GUAN.20190725.0859</t>
@@ -155,7 +161,7 @@
     <t xml:space="preserve">A00000040243</t>
   </si>
   <si>
-    <t xml:space="preserve">ffa2ff36-7abb-460f-9f43-b820c8255014</t>
+    <t xml:space="preserve">483445ad-efd9-4dc2-82e4-85aba280d9c3</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GUAN.20190807.0815</t>
@@ -167,10 +173,10 @@
     <t xml:space="preserve">A00000040233</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T143335Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d62c5980-9e46-4346-bc21-b1a6a71b6790</t>
+    <t xml:space="preserve">20210111T180035Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29f8d321-c54a-49aa-b771-510e2a3947cb</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GUAN.20190822.0829</t>
@@ -182,7 +188,7 @@
     <t xml:space="preserve">A00000040247</t>
   </si>
   <si>
-    <t xml:space="preserve">5f7fd3b3-546f-48c7-be44-7350e856b792</t>
+    <t xml:space="preserve">5aedd1ad-0026-4830-ae3d-edfd8bb96f4d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GUAN.20190904.0911</t>
@@ -194,10 +200,10 @@
     <t xml:space="preserve">A00000040249</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T143113Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107936f7-148b-4e5a-aa54-2a795e6f9640</t>
+    <t xml:space="preserve">20210111T190012Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f4dacf2b-1b06-4d1d-8a3f-67b971d61a79</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GUAN.20190919.0853</t>
@@ -209,7 +215,7 @@
     <t xml:space="preserve">A00000040252</t>
   </si>
   <si>
-    <t xml:space="preserve">4b2c8971-702f-4f1f-9215-0ff719ececb1</t>
+    <t xml:space="preserve">9269898a-bdbc-4273-9dab-b2b32810a711</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GUAN.20191003.0856</t>
@@ -221,10 +227,10 @@
     <t xml:space="preserve">A00000040259</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T143544Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a7fd02d6-c383-4c6c-abc2-a763ce78dfa0</t>
+    <t xml:space="preserve">20210111T183814Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51c712e9-fff0-4799-813f-332a57c47ac5</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GUAN.20191017.0821</t>
@@ -236,7 +242,7 @@
     <t xml:space="preserve">A00000040269</t>
   </si>
   <si>
-    <t xml:space="preserve">98bfa97f-e9ae-48e6-a886-ef5f2bead694</t>
+    <t xml:space="preserve">e7b30a82-88f6-4770-95c6-40eaca9a733b</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GUAN.20191029.0813</t>
@@ -248,7 +254,7 @@
     <t xml:space="preserve">A00000040266</t>
   </si>
   <si>
-    <t xml:space="preserve">f5a726bf-04a5-4e5c-add0-4ce95e8e4b39</t>
+    <t xml:space="preserve">3afd149f-d21b-41fe-b108-a900042337c5</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GUAN.20191114.0745</t>
@@ -260,10 +266,10 @@
     <t xml:space="preserve">A00000040311</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T143559Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6a126a4d-be7a-4756-aedf-ab8dc5e13b2e</t>
+    <t xml:space="preserve">20210112T151645Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3bb76702-b580-4dc9-805a-c0c7f05cb61c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GUAN.20191126.0836</t>
@@ -275,7 +281,7 @@
     <t xml:space="preserve">A00000040268</t>
   </si>
   <si>
-    <t xml:space="preserve">09ae5c6b-429c-43f4-ba41-082008083859</t>
+    <t xml:space="preserve">2641ba0b-676e-448c-9c41-cb9370a1b5c9</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GUAN.20191211.0831</t>
@@ -287,10 +293,10 @@
     <t xml:space="preserve">A00000040316</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T143526Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94a68dc4-45dd-473c-a010-9823f290ad8a</t>
+    <t xml:space="preserve">20210112T151150Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40e2ba6e-2062-4cf3-8f71-fba5e2ec30e0</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GUAN.20191223.1304</t>
@@ -637,7 +643,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -691,23 +697,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43587.5555555556</v>
@@ -728,35 +737,38 @@
         <v>0.335</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43678.75</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43601.5590277778</v>
@@ -777,35 +789,38 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43678.75</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43615.53125</v>
@@ -826,35 +841,38 @@
         <v>0.036</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43678.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43629.5625</v>
@@ -875,35 +893,38 @@
         <v>0.034</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43678.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43644.0625</v>
@@ -924,35 +945,38 @@
         <v>0.103</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43777.7916666667</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43657.5229166667</v>
@@ -973,35 +997,38 @@
         <v>0.246</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43777.7916666667</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43671.5513888889</v>
@@ -1022,35 +1049,38 @@
         <v>0.141</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43777.7916666667</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43684.5229166667</v>
@@ -1071,35 +1101,38 @@
         <v>0.132</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43777.7916666667</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43699.5229166667</v>
@@ -1120,35 +1153,38 @@
         <v>0.142</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43777.7916666667</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43712.5659722222</v>
@@ -1169,35 +1205,38 @@
         <v>0.108</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43817.7916666667</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43727.5520833333</v>
@@ -1218,35 +1257,38 @@
         <v>0.109</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43817.7916666667</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43741.5520833333</v>
@@ -1267,35 +1309,38 @@
         <v>0.143</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43817.7916666667</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43755.5347222222</v>
@@ -1316,35 +1361,38 @@
         <v>0.3</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43817.7916666667</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>43767.5222222222</v>
@@ -1365,35 +1413,38 @@
         <v>0.181</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43874.7916666667</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>43783.5</v>
@@ -1414,35 +1465,38 @@
         <v>0.081</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>43874.7916666667</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>43795.5416666667</v>
@@ -1463,35 +1517,38 @@
         <v>0.273</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>43874.7916666667</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>43810.53125</v>
@@ -1512,17 +1569,20 @@
         <v>0.123</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>43874.7916666667</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
